--- a/CNN_CUDA/Benchmark.xlsx
+++ b/CNN_CUDA/Benchmark.xlsx
@@ -1,26 +1,120 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Dev\Gits Storage\UW\CUDA_CNN_From_Scratch\CNN_CUDA\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E0BA9B-E367-4696-B2D5-91F611DE277E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2985" yWindow="1215" windowWidth="33810" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
+  <si>
+    <t>Conv2D</t>
+  </si>
+  <si>
+    <t>Pooling</t>
+  </si>
+  <si>
+    <t>Conv2D_cuda Total</t>
+  </si>
+  <si>
+    <t>Conv2D_cuda MemCopy</t>
+  </si>
+  <si>
+    <t>Conv2D_cuda Kernel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conv2D_cuda Total </t>
+  </si>
+  <si>
+    <t>Unrolling Filter J</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Decrease</t>
+  </si>
+  <si>
+    <t>Shared Memory Filter</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>GPU OPT</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Combined 2 layers</t>
+  </si>
+  <si>
+    <t>trans</t>
+  </si>
+  <si>
+    <t>exe</t>
+  </si>
+  <si>
+    <t>GPU Kernel</t>
+  </si>
+  <si>
+    <t>GPU Kernel OPT</t>
+  </si>
+  <si>
+    <t>Transition</t>
+  </si>
+  <si>
+    <t>Execution Time</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +122,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +157,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -66,6 +177,3903 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Convolutional Layer Execution Time vs. Images# In</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Different Implementation</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10506</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21244</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>50659</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>102755</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>203823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4579-4DA3-81B1-5A2CFEC038EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2090</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6088</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4579-4DA3-81B1-5A2CFEC038EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2470</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3874</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12434</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4579-4DA3-81B1-5A2CFEC038EC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1169367648"/>
+        <c:axId val="940268528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1169367648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Imgaes#</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="940268528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="940268528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1169367648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance of Convolutional Layer Kernel After Optimized</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Kernel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1338</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1690</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1792</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1845</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0DAC-4BCD-A6CB-D2A2AB6F0EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU Kernel OPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1015</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1321</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1624</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1732</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3823</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0DAC-4BCD-A6CB-D2A2AB6F0EC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1359531552"/>
+        <c:axId val="1242854208"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1359531552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Images#</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1242854208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1242854208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Execution Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359531552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Time of Data Transition and Execution In</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Kernel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transition</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$48:$R$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$48:$S$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>514</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1049</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4917</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9670</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E747-402A-AB4B-5811D575F7AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$47</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Execution Time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$R$48:$R$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$48:$T$53</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1159</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1832</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2211</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4451</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E747-402A-AB4B-5811D575F7AE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1389945056"/>
+        <c:axId val="1269620528"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1389945056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Image#</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1269620528"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1269620528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1389945056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>209549</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>23811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{736DE115-E11A-602C-C4A4-7D36E453AF2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>176211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17D5D017-5D6A-A6F8-632A-73142407200D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>66674</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EF657BA-531A-ACF7-14F2-FB7EB0B6B84F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +4338,787 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>15060</v>
+      </c>
+      <c r="B2">
+        <v>302536</v>
+      </c>
+      <c r="C2">
+        <v>47558</v>
+      </c>
+      <c r="D2">
+        <v>23230</v>
+      </c>
+      <c r="E2">
+        <v>16654</v>
+      </c>
+      <c r="F2">
+        <v>6575</v>
+      </c>
+      <c r="H2">
+        <v>15060</v>
+      </c>
+      <c r="I2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>32</v>
+      </c>
+      <c r="P2">
+        <v>1340</v>
+      </c>
+      <c r="Q2">
+        <v>1017</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1338</v>
+      </c>
+      <c r="U2">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>10000</v>
+      </c>
+      <c r="B3">
+        <v>203823</v>
+      </c>
+      <c r="C3">
+        <v>32549</v>
+      </c>
+      <c r="D3">
+        <v>12660</v>
+      </c>
+      <c r="E3">
+        <v>8519</v>
+      </c>
+      <c r="F3">
+        <v>4141</v>
+      </c>
+      <c r="H3">
+        <v>10000</v>
+      </c>
+      <c r="I3">
+        <v>12434</v>
+      </c>
+      <c r="J3">
+        <v>8611</v>
+      </c>
+      <c r="K3">
+        <v>3823</v>
+      </c>
+      <c r="L3" s="2">
+        <f>(F3-K3)/F3</f>
+        <v>7.6793045158174353E-2</v>
+      </c>
+      <c r="N3">
+        <v>500</v>
+      </c>
+      <c r="O3">
+        <v>10506</v>
+      </c>
+      <c r="P3">
+        <v>2090</v>
+      </c>
+      <c r="Q3">
+        <v>1724</v>
+      </c>
+      <c r="S3">
+        <v>500</v>
+      </c>
+      <c r="T3">
+        <v>1690</v>
+      </c>
+      <c r="U3">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5000</v>
+      </c>
+      <c r="B4">
+        <v>102755</v>
+      </c>
+      <c r="C4">
+        <v>15075</v>
+      </c>
+      <c r="D4">
+        <v>6088</v>
+      </c>
+      <c r="E4">
+        <v>4031</v>
+      </c>
+      <c r="F4">
+        <v>2056</v>
+      </c>
+      <c r="H4">
+        <v>5000</v>
+      </c>
+      <c r="I4">
+        <v>5889</v>
+      </c>
+      <c r="J4">
+        <v>3959</v>
+      </c>
+      <c r="K4">
+        <v>1930</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" ref="L4:L8" si="0">(F4-K4)/F4</f>
+        <v>6.1284046692607001E-2</v>
+      </c>
+      <c r="N4">
+        <v>1000</v>
+      </c>
+      <c r="O4">
+        <v>21244</v>
+      </c>
+      <c r="P4">
+        <v>2619</v>
+      </c>
+      <c r="Q4">
+        <v>2470</v>
+      </c>
+      <c r="S4">
+        <v>1000</v>
+      </c>
+      <c r="T4">
+        <v>1792</v>
+      </c>
+      <c r="U4">
+        <v>1624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2500</v>
+      </c>
+      <c r="B5">
+        <v>50659</v>
+      </c>
+      <c r="C5">
+        <v>7807</v>
+      </c>
+      <c r="D5">
+        <v>3996</v>
+      </c>
+      <c r="E5">
+        <v>2151</v>
+      </c>
+      <c r="F5">
+        <v>1845</v>
+      </c>
+      <c r="H5">
+        <v>2500</v>
+      </c>
+      <c r="I5">
+        <v>3874</v>
+      </c>
+      <c r="J5">
+        <v>2141</v>
+      </c>
+      <c r="K5">
+        <v>1732</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1246612466124659E-2</v>
+      </c>
+      <c r="N5">
+        <v>2500</v>
+      </c>
+      <c r="O5">
+        <v>50659</v>
+      </c>
+      <c r="P5">
+        <v>3996</v>
+      </c>
+      <c r="Q5">
+        <v>3874</v>
+      </c>
+      <c r="S5">
+        <v>2500</v>
+      </c>
+      <c r="T5">
+        <v>1845</v>
+      </c>
+      <c r="U5">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1000</v>
+      </c>
+      <c r="B6">
+        <v>21244</v>
+      </c>
+      <c r="C6">
+        <v>3064</v>
+      </c>
+      <c r="D6">
+        <v>2619</v>
+      </c>
+      <c r="E6">
+        <v>827</v>
+      </c>
+      <c r="F6">
+        <v>1792</v>
+      </c>
+      <c r="H6">
+        <v>1000</v>
+      </c>
+      <c r="I6">
+        <v>2470</v>
+      </c>
+      <c r="J6">
+        <v>846</v>
+      </c>
+      <c r="K6">
+        <v>1624</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="0"/>
+        <v>9.375E-2</v>
+      </c>
+      <c r="N6">
+        <v>5000</v>
+      </c>
+      <c r="O6">
+        <v>102755</v>
+      </c>
+      <c r="P6">
+        <v>6088</v>
+      </c>
+      <c r="Q6">
+        <v>5889</v>
+      </c>
+      <c r="S6">
+        <v>5000</v>
+      </c>
+      <c r="T6">
+        <v>2056</v>
+      </c>
+      <c r="U6">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>10506</v>
+      </c>
+      <c r="C7">
+        <v>1510</v>
+      </c>
+      <c r="D7">
+        <v>2090</v>
+      </c>
+      <c r="E7">
+        <v>399</v>
+      </c>
+      <c r="F7">
+        <v>1690</v>
+      </c>
+      <c r="H7">
+        <v>500</v>
+      </c>
+      <c r="I7">
+        <v>1724</v>
+      </c>
+      <c r="J7">
+        <v>402</v>
+      </c>
+      <c r="K7">
+        <v>1321</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="0"/>
+        <v>0.21834319526627219</v>
+      </c>
+      <c r="N7">
+        <v>10000</v>
+      </c>
+      <c r="O7">
+        <v>203823</v>
+      </c>
+      <c r="P7">
+        <v>12660</v>
+      </c>
+      <c r="Q7">
+        <v>12434</v>
+      </c>
+      <c r="S7">
+        <v>10000</v>
+      </c>
+      <c r="T7">
+        <v>4141</v>
+      </c>
+      <c r="U7">
+        <v>3823</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>1340</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1338</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1017</v>
+      </c>
+      <c r="J8">
+        <v>2</v>
+      </c>
+      <c r="K8">
+        <v>1015</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="0"/>
+        <v>0.24140508221225709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K11" t="s">
+        <v>4</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>15060</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>10000</v>
+      </c>
+      <c r="I13">
+        <v>12391</v>
+      </c>
+      <c r="J13">
+        <v>8511</v>
+      </c>
+      <c r="K13">
+        <v>3880</v>
+      </c>
+      <c r="L13" s="2">
+        <f>(F3-K13)/F3</f>
+        <v>6.3028254044916687E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>5000</v>
+      </c>
+      <c r="I14">
+        <v>5811</v>
+      </c>
+      <c r="J14">
+        <v>3944</v>
+      </c>
+      <c r="K14">
+        <v>1866</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" ref="L14:L18" si="1">(F4-K14)/F4</f>
+        <v>9.2412451361867709E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>2500</v>
+      </c>
+      <c r="I15">
+        <v>3781</v>
+      </c>
+      <c r="J15">
+        <v>2466</v>
+      </c>
+      <c r="K15">
+        <v>1615</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="1"/>
+        <v>0.12466124661246612</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1000</v>
+      </c>
+      <c r="I16">
+        <v>2424</v>
+      </c>
+      <c r="J16">
+        <v>829</v>
+      </c>
+      <c r="K16">
+        <v>1594</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="1"/>
+        <v>0.11049107142857142</v>
+      </c>
+    </row>
+    <row r="17" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>500</v>
+      </c>
+      <c r="I17">
+        <v>1763</v>
+      </c>
+      <c r="J17">
+        <v>407</v>
+      </c>
+      <c r="K17">
+        <v>1356</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19763313609467456</v>
+      </c>
+    </row>
+    <row r="18" spans="8:12" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1079</v>
+      </c>
+      <c r="J18">
+        <v>2</v>
+      </c>
+      <c r="K18">
+        <v>1077</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="1"/>
+        <v>0.19506726457399104</v>
+      </c>
+    </row>
+    <row r="41" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>10</v>
+      </c>
+      <c r="J41" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N41" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42">
+        <v>31</v>
+      </c>
+      <c r="J42">
+        <v>1163</v>
+      </c>
+      <c r="M42" s="3">
+        <v>4</v>
+      </c>
+      <c r="N42">
+        <f t="shared" ref="N42:N44" si="2">J42-M42</f>
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="43" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>500</v>
+      </c>
+      <c r="I43">
+        <v>12317</v>
+      </c>
+      <c r="J43">
+        <v>2113</v>
+      </c>
+      <c r="M43" s="3">
+        <v>514</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="2"/>
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="44" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>1000</v>
+      </c>
+      <c r="I44">
+        <v>24114</v>
+      </c>
+      <c r="J44">
+        <v>2881</v>
+      </c>
+      <c r="M44" s="3">
+        <v>1049</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="2"/>
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="45" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>2500</v>
+      </c>
+      <c r="I45">
+        <v>60860</v>
+      </c>
+      <c r="J45">
+        <v>4520</v>
+      </c>
+      <c r="M45" s="3">
+        <v>2611</v>
+      </c>
+      <c r="N45">
+        <f>J45-M45</f>
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="46" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>5000</v>
+      </c>
+      <c r="I46">
+        <v>120041</v>
+      </c>
+      <c r="J46">
+        <v>7128</v>
+      </c>
+      <c r="M46">
+        <v>4917</v>
+      </c>
+      <c r="N46">
+        <f>J46-M46</f>
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="47" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>10000</v>
+      </c>
+      <c r="I47">
+        <v>243051</v>
+      </c>
+      <c r="J47">
+        <v>14121</v>
+      </c>
+      <c r="M47">
+        <v>9670</v>
+      </c>
+      <c r="N47">
+        <f>J47-M47</f>
+        <v>4451</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="T47" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="8:20" x14ac:dyDescent="0.25">
+      <c r="R48">
+        <v>1</v>
+      </c>
+      <c r="S48" s="3">
+        <v>4</v>
+      </c>
+      <c r="T48">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="49" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R49">
+        <v>500</v>
+      </c>
+      <c r="S49" s="3">
+        <v>514</v>
+      </c>
+      <c r="T49">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="50" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R50">
+        <v>1000</v>
+      </c>
+      <c r="S50" s="3">
+        <v>1049</v>
+      </c>
+      <c r="T50">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="51" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R51">
+        <v>2500</v>
+      </c>
+      <c r="S51" s="3">
+        <v>2611</v>
+      </c>
+      <c r="T51">
+        <v>1909</v>
+      </c>
+    </row>
+    <row r="52" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R52">
+        <v>5000</v>
+      </c>
+      <c r="S52">
+        <v>4917</v>
+      </c>
+      <c r="T52">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="53" spans="18:20" x14ac:dyDescent="0.25">
+      <c r="R53">
+        <v>10000</v>
+      </c>
+      <c r="S53">
+        <v>9670</v>
+      </c>
+      <c r="T53">
+        <v>4451</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>